--- a/1.マニュアル/10.ユーザープロファイルを設定/ユーザープロファイルのマニュアル.xlsx
+++ b/1.マニュアル/10.ユーザープロファイルを設定/ユーザープロファイルのマニュアル.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\GitHub\Rootstock_SC\1.マニュアル\10.ユーザープロファイルを設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B4327A-61CD-4710-9630-A62A2649CB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190D14F1-64A1-4459-8022-3D28F82B8F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="レポートを作成" sheetId="1" r:id="rId1"/>
+    <sheet name="ユーザープロファイル" sheetId="1" r:id="rId1"/>
     <sheet name="リビジョン" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
@@ -243,16 +243,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>158281</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>32660</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>270340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>167131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>504263</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166487</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>616322</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20811</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -267,74 +267,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14513016" y="2430719"/>
+          <a:off x="11890840" y="402455"/>
           <a:ext cx="1029541" cy="369150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>644899</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>86846</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FF021B-473E-4774-9B6E-F87CC7056E4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8164046" y="1778934"/>
-          <a:ext cx="968748" cy="350183"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90:L90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
